--- a/backend/fms_core/tests/valid_templates/Project_study_link_samples_v4_0_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Project_study_link_samples_v4_0_0.xlsx
@@ -350,7 +350,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H307"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -540,22 +540,12 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="17"/>
     </row>
@@ -569,9 +559,7 @@
       <c r="C14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
         <v>13</v>
       </c>
@@ -583,29 +571,29 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -614,12 +602,24 @@
       <c r="H16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="A17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
     </row>
@@ -663,7 +663,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -673,7 +673,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -1505,22 +1505,22 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="19"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
       <c r="H106" s="17"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="19"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
       <c r="H107" s="17"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1536,22 +1536,22 @@
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="19"/>
       <c r="B109" s="19"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="19"/>
@@ -2653,9 +2653,9 @@
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
     </row>
-    <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="19"/>
-      <c r="B221" s="4"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -2663,9 +2663,9 @@
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
     </row>
-    <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="19"/>
-      <c r="B222" s="4"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -3523,9 +3523,29 @@
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
     </row>
+    <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A308" s="19"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
+      <c r="G308" s="4"/>
+      <c r="H308" s="4"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A309" s="19"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
+      <c r="H309" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A9:A307" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A9:A309" type="list">
       <formula1>",Add to project and study,Add to study,Remove from project,Remove from study"</formula1>
       <formula2>0</formula2>
     </dataValidation>
